--- a/medicine/Sexualité et sexologie/Liste_des_plus_jeunes_mères_du_monde/Liste_des_plus_jeunes_mères_du_monde.xlsx
+++ b/medicine/Sexualité et sexologie/Liste_des_plus_jeunes_mères_du_monde/Liste_des_plus_jeunes_mères_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plus_jeunes_m%C3%A8res_du_monde</t>
+          <t>Liste_des_plus_jeunes_mères_du_monde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des plus jeunes mères du monde présente les cas connus de filles de moins de 12 ans ayant mis au monde un enfant. Ces grossesses à caractère exceptionnel se déclenchent souvent du fait d'une puberté précoce chez la fille. La puberté chez les femmes débute en général entre 8 et 13 ans, et l'âge de la ménarche, les premiers cycles menstruels, bien qu'ayant diminué de manière constante lors du XXe siècle, s'est stabilisé autour de 12 ans. Les grossesses ayant lieu sous cette moyenne sont généralement considérées comme exceptionnelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plus_jeunes_m%C3%A8res_du_monde</t>
+          <t>Liste_des_plus_jeunes_mères_du_monde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Âge ménarchique et grossesses précoces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'âge moyen de la ménarche est corrélé au début de la vie sexuelle des femmes et la baisse de cet âge moyen entraîne un risque accru d'abus sexuels et de grossesses précoces chez les adolescentes[1]. La baisse de cet âge a été avérée dans la plupart des zones industrialisées du monde. L'âge ménarchique est passé de 17 à 13 ans en un siècle aux États-Unis[1].
-Au début du XXe siècle, les grossesses précoces demeurent rares en Europe. Ainsi, un docteur en 1933, dit, lors d'un échange entre spécialistes sur ces cas extrêmes, n'avoir eu à faire qu'à la grossesse d'une fillette anglaise de 11 ans[2]. Cependant, une analyse est faite par Gould et Pye dans leur livre « Anomalies and curiosities of medicine » de ces cas extraordinaires, montrant une compilation relativement conséquente et remontant des siècles en arrière[3].
-Dans certains pays, ou régions du monde, les grossesses précoces sont un phénomène qui, à défaut d'être répandu, est néanmoins connu et peu exceptionnel. Ainsi, à la suite de l'accouchement d'une fille de 9 ans dans le sud-ouest de l'Afrique, un porte-parole de l'hôpital où a eu lieu la naissance dit que ce genre d'événements n'est « pas rare »[4]. Malgré une baisse significative de ces cas, les grossesses chez des mineures de 10 ans sont encore très nombreuses au Mexique. On en dénombre plusieurs centaines par an, voire plus de 1 000 durant la période 1992-1999[5].
-Le taux de grossesses chez les moins de 20 ans est, d'après l'Organisation mondiale de la santé (OMS), de 18 % en Amérique latine (19,2 % au Mexique en 2011), sachant que l'Afrique subsaharienne possède un pourcentage plus élevé encore de ces grossesses en dessous de l'âge de 20 ans[5].
-Les grossesses précoces résultent plus souvent de viols et d'abus sexuels que de relations consenties et, dans le cas du Mexique, se déroulent plus souvent dans des milieux ruraux, peu éduqués[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'âge moyen de la ménarche est corrélé au début de la vie sexuelle des femmes et la baisse de cet âge moyen entraîne un risque accru d'abus sexuels et de grossesses précoces chez les adolescentes. La baisse de cet âge a été avérée dans la plupart des zones industrialisées du monde. L'âge ménarchique est passé de 17 à 13 ans en un siècle aux États-Unis.
+Au début du XXe siècle, les grossesses précoces demeurent rares en Europe. Ainsi, un docteur en 1933, dit, lors d'un échange entre spécialistes sur ces cas extrêmes, n'avoir eu à faire qu'à la grossesse d'une fillette anglaise de 11 ans. Cependant, une analyse est faite par Gould et Pye dans leur livre « Anomalies and curiosities of medicine » de ces cas extraordinaires, montrant une compilation relativement conséquente et remontant des siècles en arrière.
+Dans certains pays, ou régions du monde, les grossesses précoces sont un phénomène qui, à défaut d'être répandu, est néanmoins connu et peu exceptionnel. Ainsi, à la suite de l'accouchement d'une fille de 9 ans dans le sud-ouest de l'Afrique, un porte-parole de l'hôpital où a eu lieu la naissance dit que ce genre d'événements n'est « pas rare ». Malgré une baisse significative de ces cas, les grossesses chez des mineures de 10 ans sont encore très nombreuses au Mexique. On en dénombre plusieurs centaines par an, voire plus de 1 000 durant la période 1992-1999.
+Le taux de grossesses chez les moins de 20 ans est, d'après l'Organisation mondiale de la santé (OMS), de 18 % en Amérique latine (19,2 % au Mexique en 2011), sachant que l'Afrique subsaharienne possède un pourcentage plus élevé encore de ces grossesses en dessous de l'âge de 20 ans.
+Les grossesses précoces résultent plus souvent de viols et d'abus sexuels que de relations consenties et, dans le cas du Mexique, se déroulent plus souvent dans des milieux ruraux, peu éduqués.
 * Les autorités médicales kenyanes, en particulier, se sont maintes fois alarmées, depuis 2006, de la recrudescence, chez eux, de maternités de fillettes d'à peine 10 à 13 ans. Mais c'est, en Afrique noire, un constat assez unanime dans tous les États, où les filles, souvent pubères dès 8-9 ans, sont mises, sitôt réglées, "au lit des hommes".
 Aux Costa Rica, Nicaragua, et Panama, jusqu'à 20% des grossesses enregistrées concernent des mineures, 1% des fillettes de moins de 12 ans.
 En France même, on aurait connu, entre 1789 et 1816, au temps de la Révolution française et du Premier Empire, une vague de maternités précoces et grossesses avortées chez des fillettes de ce même créneau d'âge de 10 à 13 ans.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_plus_jeunes_m%C3%A8res_du_monde</t>
+          <t>Liste_des_plus_jeunes_mères_du_monde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_plus_jeunes_m%C3%A8res_du_monde</t>
+          <t>Liste_des_plus_jeunes_mères_du_monde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_plus_jeunes_m%C3%A8res_du_monde</t>
+          <t>Liste_des_plus_jeunes_mères_du_monde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -611,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_plus_jeunes_m%C3%A8res_du_monde</t>
+          <t>Liste_des_plus_jeunes_mères_du_monde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,6 +650,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
